--- a/biology/Botanique/Syzygium_polyanthum/Syzygium_polyanthum.xlsx
+++ b/biology/Botanique/Syzygium_polyanthum/Syzygium_polyanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laurier indonésien
-Syzygium polyanthum, le laurier indonésien, est une espèce de plantes de la famille des Myrtaceae et du genre Syzygium. Ses feuilles sont utilisées en cuisine sous le nom de feuilles de Salam, et son bois est vendu sous le nom de Kelat[1].
+Syzygium polyanthum, le laurier indonésien, est une espèce de plantes de la famille des Myrtaceae et du genre Syzygium. Ses feuilles sont utilisées en cuisine sous le nom de feuilles de Salam, et son bois est vendu sous le nom de Kelat.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse jusqu'à 1 400 m d'altitude et peut atteindre 30 m pour un diamètre de 60 cm.
 La pétiole peut mesurer 12 mm. La longueur des feuilles peut aller de 5 à 16 cm quand leur largeur varie de 2 à 7 cm.
 Les fleurs ont une inflorescence en panicule. L'arbre peut fleurir dès l'âge de 3 ans et les fleurs et les fruits peuvent être présents toute l'année.
-Dans certaines zones, il est invasif[2].
+Dans certaines zones, il est invasif.
 </t>
         </is>
       </c>
